--- a/resources/wheels/182 - Кунейко.xlsx
+++ b/resources/wheels/182 - Кунейко.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -711,16 +711,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,9 +937,9 @@
       <c r="F16" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>55.3</v>
+        <v>66.262</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1049,7 +1049,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -1061,7 +1063,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -1073,7 +1077,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -1613,16 +1619,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,9 +1847,9 @@
       <c r="F16" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>55.3</v>
+        <v>66.262</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1953,7 +1959,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -1965,7 +1973,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -1977,7 +1987,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -2517,16 +2529,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2745,9 +2757,9 @@
       <c r="F16" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>55.3</v>
+        <v>66.262</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2857,7 +2869,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -2869,7 +2883,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -2881,7 +2897,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -3424,16 +3442,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3650,9 +3668,9 @@
       <c r="F16" s="22">
         <v>95.4</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>112.5</v>
+        <v>123.462</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -3762,7 +3780,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -3774,7 +3794,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -3786,7 +3808,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -4329,16 +4353,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4551,9 +4575,9 @@
       <c r="F16" s="22">
         <v>169.1</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>186.20000000000002</v>
+        <v>197.16200000000003</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4663,7 +4687,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -4675,7 +4701,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -4687,7 +4715,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -5230,16 +5260,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5452,9 +5482,9 @@
       <c r="F16" s="22">
         <v>179.5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>196.60000000000002</v>
+        <v>207.56200000000004</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -5564,7 +5594,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -5576,7 +5608,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -5588,7 +5622,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>
@@ -6131,16 +6167,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6353,9 +6389,9 @@
       <c r="F16" s="22">
         <v>179.5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>196.60000000000002</v>
+        <v>207.56200000000004</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -6465,7 +6501,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>3.455</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
     </row>
@@ -6477,7 +6515,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>3.113</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="4"/>
     </row>
@@ -6489,7 +6529,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>4.394</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
     </row>

--- a/resources/wheels/182 - Кунейко.xlsx
+++ b/resources/wheels/182 - Кунейко.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -178,6 +178,42 @@
   </si>
   <si>
     <t>AH 5270-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -706,7 +742,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -939,7 +975,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>66.262</v>
+        <v>68.727</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1049,8 +1085,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -1063,7 +1099,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -1077,8 +1113,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -1091,7 +1127,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -1103,7 +1141,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -1115,7 +1155,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -1124,8 +1166,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -1134,7 +1180,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -1144,7 +1192,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -1154,7 +1204,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -1164,7 +1216,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -1174,7 +1228,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -1184,7 +1240,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -1194,7 +1252,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -1204,7 +1264,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -1214,7 +1276,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -1224,7 +1288,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -1234,7 +1300,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -1614,7 +1682,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1917,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>66.262</v>
+        <v>68.727</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1959,8 +2027,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -1973,7 +2041,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -1987,8 +2055,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -2001,7 +2069,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -2013,7 +2083,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -2025,7 +2097,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -2034,8 +2108,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -2044,7 +2122,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -2054,7 +2134,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -2064,7 +2146,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -2074,7 +2158,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -2084,7 +2170,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -2094,7 +2182,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -2104,7 +2194,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -2114,7 +2206,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -2124,7 +2218,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -2134,7 +2230,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -2144,7 +2242,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -2524,7 +2624,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2859,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>66.262</v>
+        <v>68.727</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2869,8 +2969,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -2883,7 +2983,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -2897,8 +2997,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -2911,7 +3011,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -2923,7 +3025,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -2935,7 +3039,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -2944,8 +3050,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -2954,7 +3064,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -2964,7 +3076,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -2974,7 +3088,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -2984,7 +3100,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -2994,7 +3112,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -3004,7 +3124,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -3014,7 +3136,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -3024,7 +3148,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -3034,7 +3160,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -3044,7 +3172,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -3054,7 +3184,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -3436,8 +3568,8 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3802,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>123.462</v>
+        <v>125.927</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -3780,8 +3912,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -3794,7 +3926,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -3808,8 +3940,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -3822,7 +3954,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -3834,7 +3968,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -3846,7 +3982,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -3855,8 +3993,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -3865,7 +4007,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -3875,7 +4019,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -3885,7 +4031,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -3895,7 +4043,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -3905,7 +4055,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -3915,7 +4067,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -3925,7 +4079,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -3935,7 +4091,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -3945,7 +4103,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -3955,7 +4115,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -3965,7 +4127,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -4348,7 +4512,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4577,7 +4741,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>197.16200000000003</v>
+        <v>199.627</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4687,8 +4851,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -4701,7 +4865,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -4715,8 +4879,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -4729,7 +4893,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -4741,7 +4907,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -4753,7 +4921,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -4762,8 +4932,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -4772,7 +4946,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -4782,7 +4958,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -4792,7 +4970,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -4802,7 +4982,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -4812,7 +4994,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -4822,7 +5006,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -4832,7 +5018,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -4842,7 +5030,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -4852,7 +5042,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -4862,7 +5054,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -4872,7 +5066,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -5255,7 +5451,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5484,7 +5680,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>207.56200000000004</v>
+        <v>210.02700000000002</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -5594,8 +5790,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -5608,7 +5804,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -5622,8 +5818,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -5636,7 +5832,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -5648,7 +5846,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -5660,7 +5860,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -5669,8 +5871,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -5679,7 +5885,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -5689,7 +5897,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -5699,7 +5909,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -5709,7 +5921,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -5719,7 +5933,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -5729,7 +5945,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -5739,7 +5957,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -5749,7 +5969,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -5759,7 +5981,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -5769,7 +5993,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -5779,7 +6005,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
@@ -6162,7 +6390,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6391,7 +6619,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>207.56200000000004</v>
+        <v>210.02700000000002</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -6501,8 +6729,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>3.455</v>
+      <c r="F24" s="22">
+        <v>3.4550000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="4"/>
@@ -6515,7 +6743,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>3.113</v>
       </c>
       <c r="G25" s="22"/>
@@ -6529,8 +6757,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>4.394</v>
+      <c r="F26" s="22">
+        <v>4.3940000000000001</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="4"/>
@@ -6543,7 +6771,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>2.2949999999999999</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="4"/>
     </row>
@@ -6555,7 +6785,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0.17</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="4"/>
     </row>
@@ -6567,7 +6799,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4"/>
     </row>
@@ -6576,8 +6810,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
     </row>
@@ -6586,7 +6824,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -6596,7 +6836,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -6606,7 +6848,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -6616,7 +6860,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -6626,7 +6872,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -6636,7 +6884,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -6646,7 +6896,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -6656,7 +6908,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -6666,7 +6920,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -6676,7 +6932,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -6686,7 +6944,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="4"/>
